--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>2.070003986395053</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>0.04145771595389647</v>
+        <v>-0.3549868696899106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>0.5453776865001148</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.2463110933103252</v>
+        <v>-0.7976031984000098</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>0.517569958955022</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-0.8924479562386289</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-2.404654578360299</v>
+        <v>-5.168396053267498</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-0.5555135891318952</v>
+        <v>-6.170514117037273</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.1838055195049315</v>
+        <v>-8.396348489509153</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-3.956152295564896</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.3297942638550877</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>0.7615317314380032</v>
+        <v>-1.314964327391877</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.8442071301477228</v>
+        <v>-0.2290082001396909</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>2.181548129993915</v>
+        <v>-4.327930935900004</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>1.234995474941392</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>0.9790066301314404</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>0.1120093655990306</v>
+        <v>1.001424185348321</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.122475521884692</v>
+        <v>1.406827509327035</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>0.3268277646568007</v>
+        <v>2.015050062499957</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>0.899360810820804</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>-0.5532507573207335</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>-1.194610791899997</v>
+        <v>0.475544341751033</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>-0.578174579726376</v>
+        <v>1.153683074671208</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-0.9222466685191666</v>
+        <v>3.648892256099945</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>0.9010266119894084</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>-0.6748030868036659</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.4006004000999264</v>
+        <v>1.506358095275817</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.7492845378401558</v>
+        <v>0.2186142574756467</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>0.02498126405197088</v>
+        <v>0.4006004000999708</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.02019328874804938</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>0.2250312265800636</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>0</v>
+        <v>-1.194807813319188</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>0.2751437421933511</v>
+        <v>-0.8522658067264599</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.04997501249375258</v>
+        <v>-3.551690943899999</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>0.1729981757035093</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>-0.0002502501000090085</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>0.4006004000999486</v>
+        <v>0.6265079396372775</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>0.07468705617190707</v>
+        <v>-0.2262139320475365</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>0.1747565356599701</v>
+        <v>-0.7976031983999876</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>0.09752710595589686</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>-0.1298577227344833</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>0</v>
+        <v>-1.022506370243093</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>-0.05493014849097255</v>
+        <v>-0.6258176826215101</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.3755441235464119</v>
+        <v>-0.3994003999000073</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>-0.5280591151586633</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>0.1858323231797465</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>0.2040282399218496</v>
+        <v>-0.7240982069264934</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>0.2820931576894115</v>
+        <v>0.3239252862367037</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>0.4682381790083401</v>
+        <v>1.609625625600009</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>0.07201851318385799</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>0.3114266062940185</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>0.177393783273172</v>
+        <v>1.255028673974046</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>0.3820358888032116</v>
+        <v>1.456954732048321</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.3654376652292513</v>
+        <v>2.015050062499957</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>0.109114088853679</v>
+        <v>0.5738128002843901</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-0.9921122434254692</v>
+        <v>-0.3994003999000184</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>0.2343541283920114</v>
+        <v>0.3477859729380528</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>0.632386719657041</v>
+        <v>-1.516043567048941</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>0.3727661260635617</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>0.5595794887920169</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>0.8024032015999882</v>
+        <v>-3.305525567352929</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>-0.009162014723362866</v>
+        <v>-0.7761690566734369</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>-0.710612081322648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.1004928750724776</v>
+        <v>-0.4781004700720293</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>-1.164307805633857</v>
+        <v>0.8024032015999882</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.009430310228020211</v>
+        <v>-0.9254001004749823</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.01640838460643668</v>
+        <v>-1.738778148048659</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>-0.801759526476209</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.1096902298128422</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>0.4100681565360587</v>
+        <v>1.431264289671219</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-0.8543873845781813</v>
+        <v>-1.172985875230903</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-2.152525688537499</v>
+        <v>-2.378486270400004</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-2.657403949513992</v>
+        <v>-1.197849743493773</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>3.680775277423343</v>
+        <v>-3.161804390399992</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-2.657403949513992</v>
+        <v>-1.503583188367719</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.3515524878755283</v>
+        <v>5.0514716327553</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-1.103489789942047</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>0.7941673783068426</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>4.875032525328971</v>
+        <v>2.294626310579817</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.5919153143106204</v>
+        <v>3.668278063260222</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-2.102255222663152</v>
+        <v>4.875032525328971</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.3096364143617802</v>
+        <v>1.064698711638945</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.576142110763046</v>
+        <v>-2.540956581357878</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.3096364143617802</v>
+        <v>1.067534122491809</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.1125542966198934</v>
+        <v>1.042084871410087</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.9704846793491928</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>-0.3435669840800237</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-1.571815848026037</v>
+        <v>-0.902682013141165</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.2260788127546598</v>
+        <v>-0.7181024432008964</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.9881265817586415</v>
+        <v>-1.571815848026048</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-0.1730430455425092</v>
+        <v>-1.524103236349472</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.2997330395895337</v>
+        <v>-1.240907591477092</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-0.1730430455425092</v>
+        <v>-0.9795431199870586</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.489856644538934</v>
+        <v>-0.5076503601560978</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>-0.7009264669202708</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>1.010933631427591</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>1.496573334184248</v>
+        <v>1.220523709718857</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.6443373634439364</v>
+        <v>0.331635972555544</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.3280907749225737</v>
+        <v>1.49657333418427</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.6376744206510576</v>
+        <v>0.2854413827033664</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.41384986893368</v>
+        <v>-0.2470349027347551</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.6376744206510576</v>
+        <v>0.1829021030556488</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.2360225714758357</v>
+        <v>-0.5273501419610804</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.3928252664241905</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.06557110213208928</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.3176932480832284</v>
+        <v>0.4517021897791018</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.2841106449979369</v>
+        <v>0.1776394553850924</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.436896861364589</v>
+        <v>-0.3176932480832284</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.1856341247700399</v>
+        <v>1.118108578853261</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.1529896917410234</v>
+        <v>1.532721825047534</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.1856341247700399</v>
+        <v>0.6979546684258597</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.2771254531272804</v>
+        <v>-0.01999876157223746</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>0.3224026462283813</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>-0.1987579616450241</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-1.090083898854377</v>
+        <v>-0.7185940249203049</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.1054381243400848</v>
+        <v>-2.566037671324872</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.6256487702510527</v>
+        <v>-1.090083898854388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-0.09450306168263811</v>
+        <v>-1.490505436658163</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.48384543263158</v>
+        <v>-0.3349088112516219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-2.11737366557071</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>-0.5919451648311758</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-1.503583188367719</v>
+        <v>-2.667930701850074</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>5.0514716327553</v>
+        <v>-10.26658854954062</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>2.294626310579817</v>
+        <v>11.45073880931151</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>3.668278063260222</v>
+        <v>2.745330323453521</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>4.875032525328971</v>
+        <v>2.421686529599976</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>1.064698711638945</v>
+        <v>1.098150690304212</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-2.540956581357878</v>
+        <v>-2.378486270400015</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.067534122491809</v>
+        <v>0.7939454532401635</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.042084871410087</v>
+        <v>-2.477884468621805</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-0.902682013141165</v>
+        <v>-1.172596637408208</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.7181024432008964</v>
+        <v>0.1725373455095491</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-1.571815848026048</v>
+        <v>0.8024032016000326</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-1.524103236349472</v>
+        <v>-2.376072963557363</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-1.240907591477092</v>
+        <v>-5.483493758400004</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-0.9795431199870586</v>
+        <v>-1.121258430555661</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.5076503601560978</v>
+        <v>-2.353730116232955</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>1.220523709718857</v>
+        <v>-0.7503547445245062</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.331635972555544</v>
+        <v>-0.07681463657787102</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.49657333418427</v>
+        <v>0.4006004000999708</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.2854413827033664</v>
+        <v>0.8992049163950133</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.2470349027347551</v>
+        <v>2.82953744009995</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.1829021030556488</v>
+        <v>0.06743799118580363</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.5273501419610804</v>
+        <v>-2.011011124776063</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.4517021897791018</v>
+        <v>0.6491745797315707</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.1776394553850924</v>
+        <v>0.2972077127382011</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.3176932480832284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.118108578853261</v>
+        <v>1.052599339874627</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.532721825047534</v>
+        <v>1.205410808099927</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>0.6979546684258597</v>
+        <v>0.6743213297292217</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.01999876157223746</v>
+        <v>-0.3246811210723899</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-0.7185940249203049</v>
+        <v>-3.037731958703727</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-2.566037671324872</v>
+        <v>-3.912174452849171</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-1.090083898854388</v>
+        <v>-4.714289126400006</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.490505436658163</v>
+        <v>-0.71096081119989</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.3349088112516219</v>
+        <v>3.648892256099967</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-2.11737366557071</v>
+        <v>-2.2626143109857</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.5919451648311758</v>
+        <v>-2.500862062524434</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>2.070003986395053</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>-0.3549868696899106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>0.5453776865001148</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-0.7976031984000098</v>
+        <v>-0.7976031983999876</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>0.517569958955022</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>-5.168396053267498</v>
+        <v>-5.168396053267521</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,7 +468,7 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-8.396348489509153</v>
+        <v>-8.396348489509165</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +479,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-3.956152295564896</v>
+        <v>-3.956152295564885</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -525,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>1.234995474941392</v>
+        <v>1.234995474941436</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -559,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>0.899360810820804</v>
+        <v>0.8993608108207818</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>0.475544341751033</v>
+        <v>0.4755443417510108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +564,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.153683074671208</v>
+        <v>1.15368307467123</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>3.648892256099945</v>
+        <v>3.648892256099967</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -610,13 +598,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.2186142574756467</v>
+        <v>0.2186142574756245</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>0.4006004000999708</v>
+        <v>0.4006004000999486</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +615,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.02019328874804938</v>
+        <v>0.02019328874802717</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>-1.194807813319188</v>
+        <v>-1.194807813319176</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +638,7 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>-3.551690943899999</v>
+        <v>-3.55169094390001</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -678,7 +666,7 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>-0.2262139320475365</v>
+        <v>-0.2262139320475476</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -701,7 +689,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>-1.022506370243093</v>
+        <v>-1.02250637024307</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +706,7 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>-0.3994003999000073</v>
+        <v>-0.3994003999000184</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -735,7 +723,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>-0.7240982069264934</v>
+        <v>-0.7240982069265045</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,7 +734,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>0.3239252862367037</v>
+        <v>0.3239252862367259</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -763,13 +751,13 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>0.07201851318385799</v>
+        <v>0.0720185131838802</v>
       </c>
       <c r="D22">
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>1.255028673974046</v>
+        <v>1.255028673974068</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -803,7 +791,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>-0.3994003999000184</v>
+        <v>-0.3994003998999962</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +802,13 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>0.3477859729380528</v>
+        <v>0.347785972938075</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>-1.516043567048941</v>
+        <v>-1.516043567048964</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>-3.305525567352929</v>
+        <v>-3.305525567352907</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -865,13 +853,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>-0.4781004700720293</v>
+        <v>-0.4781004700720182</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.8024032015999882</v>
+        <v>0.8024032016000104</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +870,13 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>-0.9254001004749823</v>
+        <v>-0.9254001004750156</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-1.738778148048659</v>
+        <v>-1.738778148048625</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,7 +887,7 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>-0.801759526476209</v>
+        <v>-0.8017595264762423</v>
       </c>
       <c r="D30">
         <v>2020</v>
@@ -922,7 +910,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>-2.378486270400004</v>
+        <v>-2.378486270399993</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +921,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-1.197849743493773</v>
+        <v>-1.197849743493751</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-3.161804390399992</v>
+        <v>-3.161804390400014</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -973,7 +961,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>11.45073880931151</v>
+        <v>11.45073880931156</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.745330323453521</v>
+        <v>2.745330323453499</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.421686529599976</v>
+        <v>2.421686529599998</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +989,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>1.098150690304212</v>
+        <v>1.098150690304189</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-2.378486270400015</v>
+        <v>-2.378486270399993</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1024,7 +1012,7 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-2.477884468621805</v>
+        <v>-2.477884468621794</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1023,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>0.9704846793491928</v>
+        <v>0.9704846793491706</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-1.172596637408208</v>
+        <v>-1.172596637408219</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1046,7 @@
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.8024032016000326</v>
+        <v>0.8024032015999882</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,7 +1057,7 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-2.376072963557363</v>
+        <v>-2.376072963557374</v>
       </c>
       <c r="D40">
         <v>2023</v>
@@ -1160,7 +1148,7 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-2.011011124776063</v>
+        <v>-2.011011124776052</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,7 +1159,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>0.3928252664241905</v>
+        <v>0.3928252664241683</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1205,13 +1193,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.052599339874627</v>
+        <v>1.052599339874583</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.205410808099927</v>
+        <v>1.205410808099971</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1228,7 +1216,7 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.3246811210723899</v>
+        <v>-0.3246811210723788</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,13 +1227,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>0.3224026462283813</v>
+        <v>0.3224026462283369</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-3.037731958703727</v>
+        <v>-3.037731958703715</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,7 +1244,7 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-3.912174452849171</v>
+        <v>-3.912174452849149</v>
       </c>
       <c r="D51">
         <v>2026</v>
@@ -1273,7 +1261,7 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-0.71096081119989</v>
+        <v>-0.7109608111999011</v>
       </c>
       <c r="D52">
         <v>2026</v>
@@ -1296,7 +1284,7 @@
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-2.500862062524434</v>
+        <v>-2.500862062524423</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>-2.500862062524423</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-2.06674933094535</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-1.12081074591468</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
